--- a/maven_use_base/src/main/resources/data_re_write_base1.xlsx
+++ b/maven_use_base/src/main/resources/data_re_write_base1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{67191F50-AF9E-427E-80D0-1A1F22E57294}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{938CFF8F-4C61-4371-A1D6-12257297850E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
     <workbookView activeTab="1" windowHeight="13140" windowWidth="21840" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
   <si>
     <t>http://120.78.128.25:8080/futureloan/mvc/api/member/register</t>
   </si>
@@ -229,6 +229,10 @@
   </si>
   <si>
     <t>11</t>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t/>
@@ -289,6 +293,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -308,7 +380,7 @@
         <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr lastClr="CEEACA" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -624,7 +696,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -671,7 +743,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -844,7 +916,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
